--- a/reports/Valores por Emisor.xlsx
+++ b/reports/Valores por Emisor.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="86">
   <si>
     <t>CARTERA DE INVERSIONES DE VALORES POR EMISOR</t>
   </si>
@@ -34,25 +34,31 @@
     <t>Total General</t>
   </si>
   <si>
+    <t>ALI</t>
+  </si>
+  <si>
+    <t>0.00</t>
+  </si>
+  <si>
+    <t>11,887,741.50</t>
+  </si>
+  <si>
     <t>BEC</t>
   </si>
   <si>
-    <t>0.00</t>
-  </si>
-  <si>
     <t>15,113,053.23</t>
   </si>
   <si>
     <t>BGA</t>
   </si>
   <si>
-    <t>13,818,268.27</t>
-  </si>
-  <si>
-    <t>5,473,877.51</t>
-  </si>
-  <si>
-    <t>19,292,145.78</t>
+    <t>17,282,207.78</t>
+  </si>
+  <si>
+    <t>12,737,105.77</t>
+  </si>
+  <si>
+    <t>30,019,313.55</t>
   </si>
   <si>
     <t>BIL</t>
@@ -64,6 +70,12 @@
     <t>BIS</t>
   </si>
   <si>
+    <t>3,432,785.16</t>
+  </si>
+  <si>
+    <t>2,110,124.86</t>
+  </si>
+  <si>
     <t>5,542,910.02</t>
   </si>
   <si>
@@ -79,6 +91,12 @@
     <t>26,445,052.71</t>
   </si>
   <si>
+    <t>BNB</t>
+  </si>
+  <si>
+    <t>651,040.00</t>
+  </si>
+  <si>
     <t>BSO</t>
   </si>
   <si>
@@ -94,15 +112,39 @@
     <t>BUN</t>
   </si>
   <si>
-    <t>18,620,722.95</t>
-  </si>
-  <si>
-    <t>5,346,016.78</t>
+    <t>22,945,911.79</t>
+  </si>
+  <si>
+    <t>1,020,827.94</t>
   </si>
   <si>
     <t>23,966,739.73</t>
   </si>
   <si>
+    <t>CGF</t>
+  </si>
+  <si>
+    <t>6,585,361.45</t>
+  </si>
+  <si>
+    <t>CRF</t>
+  </si>
+  <si>
+    <t>14,950,206.64</t>
+  </si>
+  <si>
+    <t>DIV</t>
+  </si>
+  <si>
+    <t>4,045,302.35</t>
+  </si>
+  <si>
+    <t>EXP</t>
+  </si>
+  <si>
+    <t>3,306,436.50</t>
+  </si>
+  <si>
     <t>FEF</t>
   </si>
   <si>
@@ -118,6 +160,12 @@
     <t>FIE</t>
   </si>
   <si>
+    <t>13,074,033.18</t>
+  </si>
+  <si>
+    <t>717,611.80</t>
+  </si>
+  <si>
     <t>13,791,644.98</t>
   </si>
   <si>
@@ -130,6 +178,12 @@
     <t>FSL</t>
   </si>
   <si>
+    <t>2,494,569.03</t>
+  </si>
+  <si>
+    <t>17,122,058.35</t>
+  </si>
+  <si>
     <t>19,616,627.38</t>
   </si>
   <si>
@@ -139,6 +193,12 @@
     <t>5,322,849.00</t>
   </si>
   <si>
+    <t>INC</t>
+  </si>
+  <si>
+    <t>511,335.00</t>
+  </si>
+  <si>
     <t>JSF</t>
   </si>
   <si>
@@ -181,6 +241,12 @@
     <t>5,005,709.40</t>
   </si>
   <si>
+    <t>SFI</t>
+  </si>
+  <si>
+    <t>443,755.46</t>
+  </si>
+  <si>
     <t>SOC</t>
   </si>
   <si>
@@ -191,6 +257,18 @@
   </si>
   <si>
     <t>5,188,218.00</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>95,837,903.38</t>
+  </si>
+  <si>
+    <t>197,535,219.33</t>
+  </si>
+  <si>
+    <t>293,373,122.71</t>
   </si>
 </sst>
 </file>
@@ -198,7 +276,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt formatCode="#,##0.00; (#,##0.00); -" numFmtId="164"/>
+    <numFmt formatCode="#,##0.00; (#,##0.00); 0" numFmtId="164"/>
   </numFmts>
   <fonts count="5">
     <font>
@@ -234,7 +312,7 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -251,8 +329,13 @@
         <fgColor rgb="FF95B3D7"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF8EA9DB"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -281,11 +364,18 @@
       <bottom style="dashed"/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium"/>
+      <right style="thin"/>
+      <top/>
+      <bottom style="medium"/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="20">
     <xf applyFont="1" fontId="0"/>
     <xf applyFont="1" fontId="1" applyFill="1" fillId="2" applyBorder="1" borderId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -317,6 +407,23 @@
       <alignment horizontal="left" shrinkToFit="1" wrapText="1"/>
     </xf>
     <xf applyFont="1" fontId="4" applyBorder="1" borderId="3" applyNumberFormat="1" numFmtId="164" applyAlignment="1">
+      <alignment horizontal="right" shrinkToFit="1" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyFont="1" fontId="0" applyFill="1" fillId="4"/>
+    <xf applyFont="1" fontId="4" applyBorder="1" borderId="4" applyNumberFormat="1" numFmtId="164" applyAlignment="1">
+      <alignment horizontal="left" indent="3" relativeIndent="3" shrinkToFit="1" wrapText="1"/>
+    </xf>
+    <xf applyFont="1" fontId="2"/>
+    <xf applyFont="1" fontId="2" applyBorder="1" borderId="4" applyNumberFormat="1" numFmtId="164" applyAlignment="1">
+      <alignment horizontal="left" indent="3" relativeIndent="3" shrinkToFit="1" wrapText="1"/>
+    </xf>
+    <xf applyFont="1" fontId="4" applyBorder="1" borderId="4" applyNumberFormat="1" numFmtId="164" applyAlignment="1">
+      <alignment horizontal="right" shrinkToFit="1" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyFont="1" fontId="4" applyFill="1" fillId="4" applyBorder="1" borderId="4" applyNumberFormat="1" numFmtId="164" applyAlignment="1">
+      <alignment horizontal="right" shrinkToFit="1" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyFont="1" fontId="2" applyFill="1" fillId="4" applyBorder="1" borderId="4" applyNumberFormat="1" numFmtId="164" applyAlignment="1">
       <alignment horizontal="right" shrinkToFit="1" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -328,7 +435,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D30"/>
+  <dimension ref="A1:D39"/>
   <sheetViews>
     <sheetView showGridLines="1" workbookViewId="0" rightToLeft="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100"/>
   </sheetViews>
@@ -397,24 +504,24 @@
         <v>10</v>
       </c>
       <c r="B9" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="12" t="s">
-        <v>12</v>
-      </c>
       <c r="D9" s="12" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="12" t="s">
         <v>14</v>
-      </c>
-      <c r="B10" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" s="12" t="s">
-        <v>15</v>
       </c>
       <c r="D10" s="12" t="s">
         <v>15</v>
@@ -453,38 +560,38 @@
         <v>22</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="10" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B14" s="12" t="s">
         <v>8</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D14" s="12" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="10" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D15" s="12" t="s">
         <v>29</v>
@@ -509,195 +616,321 @@
         <v>32</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D17" s="12" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="10" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B18" s="12" t="s">
         <v>8</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D18" s="12" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="10" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B19" s="12" t="s">
         <v>8</v>
       </c>
       <c r="C19" s="12" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D19" s="12" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="10" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>8</v>
+        <v>41</v>
       </c>
       <c r="C20" s="12" t="s">
-        <v>39</v>
+        <v>8</v>
       </c>
       <c r="D20" s="12" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="10" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B21" s="12" t="s">
         <v>8</v>
       </c>
       <c r="C21" s="12" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D21" s="12" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="10" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B22" s="12" t="s">
-        <v>43</v>
+        <v>8</v>
       </c>
       <c r="C22" s="12" t="s">
-        <v>8</v>
+        <v>45</v>
       </c>
       <c r="D22" s="12" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="10" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B23" s="12" t="s">
         <v>8</v>
       </c>
       <c r="C23" s="12" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D23" s="12" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="10" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B24" s="12" t="s">
-        <v>8</v>
+        <v>49</v>
       </c>
       <c r="C24" s="12" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="D24" s="12" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="10" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B25" s="12" t="s">
-        <v>49</v>
+        <v>8</v>
       </c>
       <c r="C25" s="12" t="s">
-        <v>8</v>
+        <v>53</v>
       </c>
       <c r="D25" s="12" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="10" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B26" s="12" t="s">
-        <v>8</v>
+        <v>55</v>
       </c>
       <c r="C26" s="12" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="D26" s="12" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="10" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="B27" s="12" t="s">
-        <v>53</v>
+        <v>8</v>
       </c>
       <c r="C27" s="12" t="s">
-        <v>8</v>
+        <v>59</v>
       </c>
       <c r="D27" s="12" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="10" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="B28" s="12" t="s">
         <v>8</v>
       </c>
       <c r="C28" s="12" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="D28" s="12" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="10" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="B29" s="12" t="s">
-        <v>8</v>
+        <v>63</v>
       </c>
       <c r="C29" s="12" t="s">
-        <v>57</v>
+        <v>8</v>
       </c>
       <c r="D29" s="12" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="10" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="B30" s="12" t="s">
-        <v>59</v>
+        <v>8</v>
       </c>
       <c r="C30" s="12" t="s">
-        <v>8</v>
+        <v>65</v>
       </c>
       <c r="D30" s="12" t="s">
-        <v>59</v>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="B31" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C31" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="D31" s="12" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="B32" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="C32" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D32" s="12" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="B33" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C33" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="D33" s="12" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="B34" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="C34" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D34" s="12" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="B35" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C35" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="D35" s="12" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="B36" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C36" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="D36" s="12" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="B37" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C37" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="D37" s="12" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B38" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="C38" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D38" s="12" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="B39" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="C39" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="D39" s="19" t="s">
+        <v>85</v>
       </c>
     </row>
   </sheetData>
